--- a/biology/Biologie cellulaire et moléculaire/Upstream_Activator_Sequence/Upstream_Activator_Sequence.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Upstream_Activator_Sequence/Upstream_Activator_Sequence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Upstream Activator Sequences sont des séquences d'ADN présentes dans les levures. Elles sont analogues aux enhancers des eucaryotes supérieur mais ne fonctionnent pas quand elles sont en aval du promoteur. (Il faut qu'elles soient en amont)
 </t>
